--- a/data/trans_dic/P16A13-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A13-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16A13-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A13-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,99%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,19%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,14%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>3,35; 5,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>5,33; 8,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>3,3; 6,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>10,82; 15,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>4,32; 6,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>6,78; 9,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>5,79; 9,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>16,19; 20,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>4,23; 6,02</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>6,63; 8,99</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>5,07; 7,36</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>14,64; 17,73</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,3%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0,9; 2,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>2,15; 3,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>1,72; 3,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>4,22; 5,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>1,87; 3,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>2,38; 4,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>1,99; 3,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>4,56; 6,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,6; 2,5</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,48; 3,72</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>1,99; 3,06</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>4,66; 5,96</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,2%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>1,53; 4,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>1,98; 6,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>1,44; 4,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>4,32; 7,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>0,61; 2,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>3,42; 7,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>1,8; 5,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>3,54; 6,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>1,46; 3,36</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>3,12; 6,31</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>1,96; 4,22</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>4,23; 6,32</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,36%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,14; 3,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,46; 4,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,39; 3,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,6; 7,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,02; 4,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,62; 6,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,45; 4,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>7,25; 8,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>2,74; 3,6</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>4,24; 5,33</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>3,1; 4,0</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>6,81; 7,94</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A13-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A13-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>12,92%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>18,19%</t>
+          <t>18,4%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>16,14%</t>
+          <t>16,18%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,82; 15,59</t>
+          <t>10,78; 15,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,19; 20,26</t>
+          <t>16,37; 20,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,64; 17,73</t>
+          <t>14,68; 17,79</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>4,89%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,22; 5,95</t>
+          <t>3,35; 5,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,56; 6,48</t>
+          <t>3,58; 6,2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,66; 5,96</t>
+          <t>3,96; 5,69</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>5,16%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,32; 7,69</t>
+          <t>4,25; 7,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,54; 6,06</t>
+          <t>3,52; 6,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,23; 6,32</t>
+          <t>4,2; 6,32</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>6,95%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,6; 7,25</t>
+          <t>4,66; 6,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,25; 8,92</t>
+          <t>6,32; 8,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,81; 7,94</t>
+          <t>6,0; 7,61</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A13-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A13-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,35; 5,97</t>
+          <t>3,42; 5,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,33; 8,86</t>
+          <t>5,25; 8,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,3; 6,25</t>
+          <t>3,33; 6,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,78; 15,6</t>
+          <t>10,54; 15,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,32; 6,87</t>
+          <t>4,56; 6,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,78; 9,74</t>
+          <t>6,73; 9,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,79; 9,33</t>
+          <t>5,84; 9,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,37; 20,37</t>
+          <t>16,65; 20,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,23; 6,02</t>
+          <t>4,27; 5,99</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,63; 8,99</t>
+          <t>6,58; 8,76</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,07; 7,36</t>
+          <t>5,0; 7,5</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,68; 17,79</t>
+          <t>14,68; 17,68</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,9; 2,08</t>
+          <t>0,87; 2,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,15; 3,72</t>
+          <t>2,14; 3,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,72; 3,15</t>
+          <t>1,73; 3,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,35; 5,73</t>
+          <t>3,13; 5,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,87; 3,54</t>
+          <t>1,95; 3,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,38; 4,21</t>
+          <t>2,42; 4,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,99; 3,56</t>
+          <t>2,0; 3,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,58; 6,2</t>
+          <t>3,72; 6,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,6; 2,5</t>
+          <t>1,6; 2,57</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,48; 3,72</t>
+          <t>2,41; 3,62</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,99; 3,06</t>
+          <t>2,04; 3,08</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,96; 5,69</t>
+          <t>3,95; 5,75</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,53; 4,54</t>
+          <t>1,78; 4,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,98; 6,33</t>
+          <t>1,92; 6,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,65</t>
+          <t>1,43; 4,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,25; 7,62</t>
+          <t>4,19; 7,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,88</t>
+          <t>0,6; 2,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,42; 7,89</t>
+          <t>3,35; 7,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,8; 5,24</t>
+          <t>1,8; 5,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,52; 6,04</t>
+          <t>3,55; 6,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,46; 3,36</t>
+          <t>1,39; 3,24</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,12; 6,31</t>
+          <t>3,1; 6,13</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,96; 4,22</t>
+          <t>2,08; 4,33</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,2; 6,32</t>
+          <t>4,28; 6,3</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,14; 3,24</t>
+          <t>2,16; 3,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,46; 4,86</t>
+          <t>3,49; 4,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,39; 3,6</t>
+          <t>2,38; 3,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,66; 6,9</t>
+          <t>4,79; 6,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,02; 4,23</t>
+          <t>3,02; 4,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,62; 6,16</t>
+          <t>4,63; 6,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,45; 4,9</t>
+          <t>3,33; 4,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,32; 8,67</t>
+          <t>6,59; 8,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,74; 3,6</t>
+          <t>2,69; 3,53</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,24; 5,33</t>
+          <t>4,19; 5,32</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,1; 4,0</t>
+          <t>3,06; 4,05</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,0; 7,61</t>
+          <t>6,11; 7,65</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>47063</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>66946</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>35154</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>66402</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>72489</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>109616</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>73011</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>138401</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>119552</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>176562</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>108165</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>204803</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>35298; 61845</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>50841; 85769</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>25113; 46651</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>54190; 80364</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>60014; 90294</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>89793; 130703</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>58041; 93534</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>125185; 155409</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>100211; 140693</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>151528; 201580</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>87536; 131181</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>185836; 223792</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>23769</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>55551</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>48833</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>104212</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>42142</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>56314</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>53013</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>116987</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>65911</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>111865</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>101847</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>221199</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>14807; 36552</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>41966; 73358</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>35937; 66712</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>71588; 130967</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>31000; 56341</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>42375; 74452</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>39742; 71398</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>83314; 139672</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>52356; 84269</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>89382; 134188</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>82983; 125031</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>178926; 260210</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>15764</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>17767</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>14727</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>36879</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6841</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>24165</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>17713</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>30533</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>22605</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>41932</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>32440</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>67412</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>9810; 26455</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9211; 29888</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7817; 26418</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>27085; 48238</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2879; 13915</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>15343; 36100</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>9873; 29174</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>23445; 40604</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>14281; 33309</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>29112; 57463</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>22821; 47429</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>55936; 82373</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>596</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>888</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>86595</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>140263</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>98714</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>207493</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>121472</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>190095</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>143737</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>285921</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>208067</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>330359</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>242452</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>493414</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>70617; 108614</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>118920; 169603</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>80501; 120900</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>165461; 241383</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>101921; 142388</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>163920; 218766</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>117570; 169868</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>240468; 316408</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>178837; 234861</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>291310; 369802</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>211615; 279675</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>433925; 543076</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>